--- a/data/Perceptron.xlsx
+++ b/data/Perceptron.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\EIA\Decimo\Sistemas Inteligentes\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GITHUB_SI\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46376E0B-10A6-48E3-BE54-8C65623829CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D20AC7-1C47-44B0-B69C-28DD3AE6410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ORMANUAL" sheetId="1" r:id="rId1"/>
     <sheet name="ORTABLA" sheetId="2" r:id="rId2"/>
+    <sheet name="AND_NOR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>TAREA ENTRENAMIENTO PERCEPTRON</t>
   </si>
@@ -79,6 +80,24 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
   </si>
 </sst>
 </file>
@@ -178,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,9 +218,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,16 +536,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF03E052-297F-49CE-BB6D-75CF600E95FB}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -546,7 +562,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -591,7 +607,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -638,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -683,7 +699,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -728,7 +744,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>1</v>
@@ -773,7 +789,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -823,7 +839,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>1</v>
@@ -868,7 +884,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>1</v>
@@ -913,7 +929,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>1</v>
@@ -958,7 +974,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -1008,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
@@ -1053,7 +1069,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1</v>
@@ -1098,7 +1114,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>1</v>
@@ -1143,7 +1159,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1</v>
@@ -1238,7 +1254,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>1</v>
@@ -1283,7 +1299,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>1</v>
@@ -1328,7 +1344,7 @@
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1378,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>1</v>
@@ -1423,7 +1439,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>1</v>
@@ -1468,7 +1484,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>1</v>
@@ -1511,9 +1527,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -1563,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1</v>
@@ -1608,7 +1624,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1</v>
@@ -1653,7 +1669,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>1</v>
@@ -1698,7 +1714,7 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>7</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>1</v>
@@ -1793,7 +1809,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>1</v>
@@ -1838,7 +1854,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>1</v>
@@ -1883,7 +1899,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>8</v>
       </c>
@@ -1933,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>1</v>
@@ -1978,7 +1994,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>1</v>
@@ -2023,7 +2039,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
         <v>1</v>
@@ -2068,7 +2084,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -2118,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>1</v>
@@ -2163,7 +2179,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>1</v>
@@ -2208,7 +2224,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>1</v>
@@ -2253,7 +2269,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>10</v>
       </c>
@@ -2303,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>1</v>
@@ -2348,7 +2364,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>1</v>
@@ -2393,7 +2409,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>1</v>
@@ -2449,31 +2465,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D94F7-5BFE-4FF4-826E-8245F831A8DD}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2481,39 +2494,30 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2523,8 +2527,360 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7817A05-DB25-462A-AF4A-CFACCDC9B5C3}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Perceptron.xlsx
+++ b/data/Perceptron.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\EIA\Decimo\Sistemas Inteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46376E0B-10A6-48E3-BE54-8C65623829CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85657BB0-20D2-48BD-ACBB-90C0026CBFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ORMANUAL" sheetId="1" r:id="rId1"/>
     <sheet name="ORTABLA" sheetId="2" r:id="rId2"/>
+    <sheet name="EJERCICIO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>TAREA ENTRENAMIENTO PERCEPTRON</t>
   </si>
@@ -80,13 +81,30 @@
   <si>
     <t>SUMA</t>
   </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,9 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF03E052-297F-49CE-BB6D-75CF600E95FB}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1527,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -2449,31 +2465,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D94F7-5BFE-4FF4-826E-8245F831A8DD}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E76E22-31AF-4D92-AC4F-8550A0AEC2DA}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2484,47 +2576,312 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Perceptron.xlsx
+++ b/data/Perceptron.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\EIA\Decimo\Sistemas Inteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85657BB0-20D2-48BD-ACBB-90C0026CBFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61294ED-498B-44EE-A590-FBCB85D2E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ORMANUAL" sheetId="1" r:id="rId1"/>
-    <sheet name="ORTABLA" sheetId="2" r:id="rId2"/>
-    <sheet name="EJERCICIO" sheetId="3" r:id="rId3"/>
+    <sheet name="ANDTABLA" sheetId="4" r:id="rId2"/>
+    <sheet name="ORTABLA" sheetId="2" r:id="rId3"/>
+    <sheet name="EJERCICIO" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>TAREA ENTRENAMIENTO PERCEPTRON</t>
   </si>
@@ -210,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,7 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,19 +548,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2464,11 +2465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D94F7-5BFE-4FF4-826E-8245F831A8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73D9CD-A483-4E62-9EA9-F994F32833CF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2503,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2514,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2534,10 +2535,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D94F7-5BFE-4FF4-826E-8245F831A8DD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E76E22-31AF-4D92-AC4F-8550A0AEC2DA}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2802,7 +2873,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">

--- a/data/Perceptron.xlsx
+++ b/data/Perceptron.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GITHUB_SI\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D20AC7-1C47-44B0-B69C-28DD3AE6410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876519C-B7C8-4E33-A999-36180CC2B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ORMANUAL" sheetId="1" r:id="rId1"/>
     <sheet name="ORTABLA" sheetId="2" r:id="rId2"/>
     <sheet name="AND_NOR" sheetId="3" r:id="rId3"/>
+    <sheet name="XOR" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>TAREA ENTRENAMIENTO PERCEPTRON</t>
   </si>
@@ -197,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2468,7 +2472,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C5" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7817A05-DB25-462A-AF4A-CFACCDC9B5C3}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2886,4 +2890,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CCF209-0E9D-47FB-B0F8-C1B39905EF0A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Perceptron.xlsx
+++ b/data/Perceptron.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\EIA\Decimo\Sistemas Inteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61294ED-498B-44EE-A590-FBCB85D2E8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1AB80E-B935-4715-8649-141B6BDD67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
+    <workbookView xWindow="2810" yWindow="1360" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{CA813501-0022-4F32-9A45-E7F1ABEDB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ORMANUAL" sheetId="1" r:id="rId1"/>
     <sheet name="ANDTABLA" sheetId="4" r:id="rId2"/>
-    <sheet name="ORTABLA" sheetId="2" r:id="rId3"/>
+    <sheet name="XORTABLA" sheetId="2" r:id="rId3"/>
     <sheet name="EJERCICIO" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2468,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB73D9CD-A483-4E62-9EA9-F994F32833CF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D94F7-5BFE-4FF4-826E-8245F831A8DD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
